--- a/OnlineLearning_FunctionDetails.xlsx
+++ b/OnlineLearning_FunctionDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU_SE\FU8\PRN231\Code\Assignment_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5370A-EF38-4952-9F53-DA38C188F3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA7B898-9561-4867-B12D-FF055359E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Function_Details" sheetId="1" r:id="rId1"/>
@@ -29301,8 +29301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79AB832-F3BC-4D99-B43E-D491E4EAC22E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30072,7 +30072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68554594-D630-4883-8FF8-98E1684947F7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
